--- a/doors-detector/results/house1.xlsx
+++ b/doors-detector/results/house1.xlsx
@@ -495,16 +495,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.7624318922406027</v>
+        <v>0.7906390544279713</v>
       </c>
       <c r="F2" t="n">
         <v>3630</v>
       </c>
       <c r="G2" t="n">
-        <v>2973</v>
+        <v>3049</v>
       </c>
       <c r="H2" t="n">
-        <v>657</v>
+        <v>581</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2a</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.5536115235363355</v>
+        <v>0.5418405987371505</v>
       </c>
       <c r="F3" t="n">
         <v>27</v>
       </c>
       <c r="G3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -550,7 +550,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2b</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.636085322525926</v>
+        <v>0.670977688259313</v>
       </c>
       <c r="F4" t="n">
         <v>101</v>
       </c>
       <c r="G4" t="n">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H4" t="n">
-        <v>198</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5">
@@ -582,7 +582,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2c</t>
+          <t>2a</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.8755330794273006</v>
+        <v>0.8864307004391663</v>
       </c>
       <c r="F5" t="n">
         <v>3630</v>
       </c>
       <c r="G5" t="n">
-        <v>3269</v>
+        <v>3298</v>
       </c>
       <c r="H5" t="n">
-        <v>361</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6">
@@ -614,7 +614,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2a</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.6552983766606058</v>
+        <v>0.6598858959970072</v>
       </c>
       <c r="F6" t="n">
         <v>27</v>
       </c>
       <c r="G6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.7140999165551825</v>
+        <v>0.7632918601951006</v>
       </c>
       <c r="F7" t="n">
         <v>101</v>
       </c>
       <c r="G7" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H7" t="n">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.8590238386822012</v>
+        <v>0.8741913311035496</v>
       </c>
       <c r="F8" t="n">
         <v>3630</v>
       </c>
       <c r="G8" t="n">
-        <v>3226</v>
+        <v>3263</v>
       </c>
       <c r="H8" t="n">
-        <v>404</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9">
@@ -710,7 +710,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2c</t>
+          <t>2b</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.7</v>
+        <v>0.658641975308642</v>
       </c>
       <c r="F9" t="n">
         <v>27</v>
@@ -728,7 +728,7 @@
         <v>19</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -742,16 +742,16 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>2b</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E10" t="n">
-        <v>0.7583332093732995</v>
+        <v>0.776690557426987</v>
       </c>
       <c r="F10" t="n">
         <v>101</v>
@@ -760,7 +760,7 @@
         <v>90</v>
       </c>
       <c r="H10" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -774,7 +774,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2a</t>
+          <t>2c</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -783,16 +783,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.8591987478085229</v>
+        <v>0.8790998936544646</v>
       </c>
       <c r="F11" t="n">
         <v>3630</v>
       </c>
       <c r="G11" t="n">
-        <v>3227</v>
+        <v>3278</v>
       </c>
       <c r="H11" t="n">
-        <v>403</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12">
@@ -806,7 +806,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2b</t>
+          <t>2c</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.6937321937321937</v>
+        <v>0.7107583774250441</v>
       </c>
       <c r="F12" t="n">
         <v>27</v>
       </c>
       <c r="G12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.7642516419538389</v>
+        <v>0.757707462259116</v>
       </c>
       <c r="F13" t="n">
         <v>101</v>
       </c>
       <c r="G13" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H13" t="n">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
